--- a/biology/Botanique/Hymenogastraceae/Hymenogastraceae.xlsx
+++ b/biology/Botanique/Hymenogastraceae/Hymenogastraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hymenogastraceae sont une famille de champignons de l’ordre des Agaricales. 
-Selon Index Fungorum                                      (2 novembre 2013)[1], le nom de la famille serait valide, mais selon MycoBank                                            (2 novembre 2013)[2] le nom de la famille serait synonyme de celui de la famille des Strophariaceae qui serait le nom valide. 
+Selon Index Fungorum                                      (2 novembre 2013), le nom de la famille serait valide, mais selon MycoBank                                            (2 novembre 2013) le nom de la famille serait synonyme de celui de la famille des Strophariaceae qui serait le nom valide. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (2 novembre 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (2 novembre 2013) :
 genre Destuntzia
 Destuntzia fusca
 genre Hymenogaster
